--- a/data/R403Q SoftMouse Export.xlsx
+++ b/data/R403Q SoftMouse Export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\GitHub\Mice_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C8BEB-AFB6-4E43-BBC4-EA9D65901D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481BD30-3E5E-42D5-9ADB-18A95DD6A628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="80">
   <si>
     <t>Cage Tag</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
     <t>Generation</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>129S6</t>
   </si>
   <si>
-    <t>09-01-2020</t>
-  </si>
-  <si>
     <t>F0</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>Null(-)</t>
   </si>
   <si>
-    <t>02-08-2021</t>
-  </si>
-  <si>
     <t>884392</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>LLP</t>
   </si>
   <si>
-    <t>02-22-2021</t>
-  </si>
-  <si>
     <t>888348</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
     <t>884388</t>
   </si>
   <si>
-    <t>05-01-2021</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -281,13 +266,13 @@
     <t>Weights (7/2)</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Alive</t>
+  </si>
+  <si>
     <t>Date_of_birth</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Alive</t>
   </si>
 </sst>
 </file>
@@ -481,9 +466,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -496,6 +478,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,7 +799,7 @@
   <dimension ref="A1:AP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -829,7 +814,7 @@
     <col min="8" max="8" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" style="6" customWidth="1"/>
     <col min="12" max="12" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
@@ -873,67 +858,67 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="Z1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="AC1" s="8"/>
       <c r="AD1" s="7"/>
@@ -952,7 +937,7 @@
     </row>
     <row r="2" spans="1:42" ht="15.6">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>1032</v>
@@ -961,63 +946,63 @@
         <v>494</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="29">
+        <v>44075</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="K2" s="30">
+        <f ca="1">TODAY()-H2</f>
+        <v>281</v>
+      </c>
+      <c r="L2" s="5">
+        <f ca="1">(K2/7)</f>
+        <v>40.142857142857146</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="e">
-        <f>DATEDIF(H2,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" s="5" t="e">
-        <f>(K2/7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="U2" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W2" s="18">
         <v>883221</v>
@@ -1054,7 +1039,7 @@
     </row>
     <row r="3" spans="1:42" ht="15.6">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>1033</v>
@@ -1063,63 +1048,63 @@
         <v>503</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="29">
+        <v>44075</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="K3" s="30">
+        <f t="shared" ref="K3:K29" ca="1" si="0">TODAY()-H3</f>
+        <v>281</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L29" ca="1" si="1">(K3/7)</f>
+        <v>40.142857142857146</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="e">
-        <f>DATEDIF(H3,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L3" s="5" t="e">
-        <f t="shared" ref="L3:L29" si="0">(K3/7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W3" s="18">
         <v>883221</v>
@@ -1156,72 +1141,72 @@
     </row>
     <row r="4" spans="1:42" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
         <v>501</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="29">
+        <v>44235</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="T4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="e">
-        <f>DATEDIF(H4,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L4" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="U4" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W4" s="18">
         <v>884392</v>
@@ -1258,72 +1243,72 @@
     </row>
     <row r="5" spans="1:42" ht="15.6">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>502</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="29">
+        <v>44235</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="T5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3" t="e">
-        <f>DATEDIF(H5,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="U5" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W5" s="18">
         <v>884392</v>
@@ -1360,72 +1345,72 @@
     </row>
     <row r="6" spans="1:42" ht="15.6">
       <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>498</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="29">
+        <v>44235</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="T6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="3" t="e">
-        <f>DATEDIF(H6,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="U6" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W6" s="18">
         <v>884392</v>
@@ -1462,72 +1447,72 @@
     </row>
     <row r="7" spans="1:42" ht="15.6">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3">
         <v>497</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="29">
+        <v>44235</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.285714285714285</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="T7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="3" t="e">
-        <f>DATEDIF(H7,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="U7" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W7" s="18">
         <v>884392</v>
@@ -1564,81 +1549,81 @@
     </row>
     <row r="8" spans="1:42" ht="15.6">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3">
         <v>500</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="29">
+        <v>44249</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="3" t="e">
-        <f>DATEDIF(H8,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="T8" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z8" s="18">
         <v>888048</v>
@@ -1666,81 +1651,81 @@
     </row>
     <row r="9" spans="1:42" ht="15.6">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3">
         <v>499</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="29">
+        <v>44249</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3" t="e">
-        <f>DATEDIF(H9,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="T9" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z9" s="18">
         <v>888048</v>
@@ -1768,66 +1753,66 @@
     </row>
     <row r="10" spans="1:42" ht="15.6">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>517</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>54</v>
+      <c r="H10" s="29">
+        <v>44317</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f>DATEDIF(H10,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K10" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U10" s="18">
         <v>10.4</v>
@@ -1836,16 +1821,16 @@
         <v>12.4</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA10" s="18">
         <v>884395</v>
@@ -1870,66 +1855,66 @@
     </row>
     <row r="11" spans="1:42" ht="15.6">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>506</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H11" s="29">
+        <v>44317</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="3" t="e">
-        <f>DATEDIF(H11,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K11" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U11" s="18">
         <v>9.3000000000000007</v>
@@ -1938,16 +1923,16 @@
         <v>13</v>
       </c>
       <c r="W11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA11" s="18">
         <v>884395</v>
@@ -1972,66 +1957,66 @@
     </row>
     <row r="12" spans="1:42" ht="15.6">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>509</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H12" s="29">
+        <v>44317</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="3" t="e">
-        <f>DATEDIF(H12,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U12" s="18">
         <v>9.6999999999999993</v>
@@ -2040,16 +2025,16 @@
         <v>13.4</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA12" s="18">
         <v>884393</v>
@@ -2074,66 +2059,66 @@
     </row>
     <row r="13" spans="1:42" ht="15.6">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <v>514</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>54</v>
+      <c r="H13" s="29">
+        <v>44317</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="3" t="e">
-        <f>DATEDIF(H13,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K13" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U13" s="18">
         <v>11.7</v>
@@ -2142,16 +2127,16 @@
         <v>14.8</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA13" s="18">
         <v>884395</v>
@@ -2176,66 +2161,66 @@
     </row>
     <row r="14" spans="1:42" ht="15.6">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>521</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H14" s="29">
+        <v>44317</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="3" t="e">
-        <f>DATEDIF(H14,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L14" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K14" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U14" s="18">
         <v>10.199999999999999</v>
@@ -2244,16 +2229,16 @@
         <v>14.4</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA14" s="18">
         <v>884394</v>
@@ -2278,66 +2263,66 @@
     </row>
     <row r="15" spans="1:42" ht="15.6">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3">
         <v>504</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>54</v>
+      <c r="H15" s="29">
+        <v>44317</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="3" t="e">
-        <f>DATEDIF(H15,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K15" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U15" s="18">
         <v>9.6999999999999993</v>
@@ -2346,16 +2331,16 @@
         <v>12.6</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA15" s="18">
         <v>884395</v>
@@ -2380,66 +2365,66 @@
     </row>
     <row r="16" spans="1:42" ht="15.6">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>507</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>54</v>
+      <c r="H16" s="29">
+        <v>44317</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="3" t="e">
-        <f>DATEDIF(H16,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K16" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U16" s="18">
         <v>10.6</v>
@@ -2448,16 +2433,16 @@
         <v>14.7</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA16" s="18">
         <v>884393</v>
@@ -2482,66 +2467,66 @@
     </row>
     <row r="17" spans="1:42" ht="15.6">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3">
         <v>512</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>54</v>
+      <c r="H17" s="29">
+        <v>44317</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="3" t="e">
-        <f>DATEDIF(H17,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K17" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U17" s="18">
         <v>10.7</v>
@@ -2550,16 +2535,16 @@
         <v>13.1</v>
       </c>
       <c r="W17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA17" s="18">
         <v>884395</v>
@@ -2584,66 +2569,66 @@
     </row>
     <row r="18" spans="1:42" ht="15.6">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
         <v>519</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>54</v>
+      <c r="H18" s="29">
+        <v>44317</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="3" t="e">
-        <f>DATEDIF(H18,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K18" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U18" s="18">
         <v>9.9</v>
@@ -2652,16 +2637,16 @@
         <v>11.6</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA18" s="18">
         <v>884393</v>
@@ -2686,66 +2671,66 @@
     </row>
     <row r="19" spans="1:42" ht="15.6">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3">
         <v>520</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H19" s="29">
+        <v>44317</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="3" t="e">
-        <f>DATEDIF(H19,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L19" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K19" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U19" s="18">
         <v>9.3000000000000007</v>
@@ -2754,16 +2739,16 @@
         <v>13.4</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA19" s="18">
         <v>884394</v>
@@ -2788,66 +2773,66 @@
     </row>
     <row r="20" spans="1:42" ht="15.6">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3">
         <v>510</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H20" s="29">
+        <v>44317</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="3" t="e">
-        <f>DATEDIF(H20,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K20" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U20" s="18">
         <v>10.3</v>
@@ -2856,16 +2841,16 @@
         <v>16.100000000000001</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA20" s="18">
         <v>884393</v>
@@ -2890,66 +2875,66 @@
     </row>
     <row r="21" spans="1:42" ht="15.6">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <v>515</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H21" s="29">
+        <v>44317</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="3" t="e">
-        <f>DATEDIF(H21,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K21" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U21" s="18">
         <v>10.5</v>
@@ -2958,16 +2943,16 @@
         <v>13.3</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA21" s="18">
         <v>884395</v>
@@ -2992,66 +2977,66 @@
     </row>
     <row r="22" spans="1:42" ht="15.6">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3">
         <v>523</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H22" s="29">
+        <v>44317</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="3" t="e">
-        <f>DATEDIF(H22,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K22" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U22" s="18">
         <v>10.4</v>
@@ -3060,16 +3045,16 @@
         <v>12.3</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA22" s="18">
         <v>884394</v>
@@ -3094,66 +3079,66 @@
     </row>
     <row r="23" spans="1:42" ht="15.6">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3">
         <v>505</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>54</v>
+      <c r="H23" s="29">
+        <v>44317</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="3" t="e">
-        <f>DATEDIF(H23,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L23" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K23" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U23" s="18">
         <v>10.3</v>
@@ -3162,16 +3147,16 @@
         <v>15.7</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA23" s="18">
         <v>884395</v>
@@ -3196,66 +3181,66 @@
     </row>
     <row r="24" spans="1:42" ht="15.6">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <v>508</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H24" s="29">
+        <v>44317</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="3" t="e">
-        <f>DATEDIF(H24,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L24" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K24" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U24" s="18">
         <v>10.1</v>
@@ -3264,16 +3249,16 @@
         <v>14.4</v>
       </c>
       <c r="W24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA24" s="18">
         <v>884393</v>
@@ -3298,66 +3283,66 @@
     </row>
     <row r="25" spans="1:42" ht="15.6">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3">
         <v>513</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H25" s="29">
+        <v>44317</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="3" t="e">
-        <f>DATEDIF(H25,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K25" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U25" s="18">
         <v>9.4</v>
@@ -3366,16 +3351,16 @@
         <v>11.7</v>
       </c>
       <c r="W25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA25" s="18">
         <v>884395</v>
@@ -3400,66 +3385,66 @@
     </row>
     <row r="26" spans="1:42" ht="15.6">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3">
         <v>522</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H26" s="29">
+        <v>44317</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="3" t="e">
-        <f>DATEDIF(H26,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L26" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K26" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U26" s="18">
         <v>10.3</v>
@@ -3468,16 +3453,16 @@
         <v>11.9</v>
       </c>
       <c r="W26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA26" s="18">
         <v>884394</v>
@@ -3502,66 +3487,66 @@
     </row>
     <row r="27" spans="1:42" ht="15.6">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3">
         <v>518</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>54</v>
+      <c r="H27" s="29">
+        <v>44317</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="3" t="e">
-        <f>DATEDIF(H27,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L27" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U27" s="18">
         <v>10.199999999999999</v>
@@ -3570,16 +3555,16 @@
         <v>13</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA27" s="18">
         <v>884395</v>
@@ -3604,66 +3589,66 @@
     </row>
     <row r="28" spans="1:42" ht="15.6">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3">
         <v>511</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="H28" s="29">
+        <v>44317</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="3" t="e">
-        <f>DATEDIF(H28,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K28" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U28" s="18">
         <v>10.9</v>
@@ -3672,16 +3657,16 @@
         <v>16.7</v>
       </c>
       <c r="W28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA28" s="18">
         <v>884393</v>
@@ -3706,66 +3691,66 @@
     </row>
     <row r="29" spans="1:42" ht="15.6">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3">
         <v>516</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>54</v>
+      <c r="H29" s="29">
+        <v>44317</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="3" t="e">
-        <f>DATEDIF(H29,#REF!,"YD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L29" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>50</v>
+      </c>
+      <c r="K29" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5714285714285712</v>
       </c>
       <c r="M29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="Q29" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U29" s="18">
         <v>10.8</v>
@@ -3774,16 +3759,16 @@
         <v>11.7</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA29" s="18">
         <v>884395</v>
@@ -4058,7 +4043,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -4068,7 +4053,7 @@
     <col min="3" max="3" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="22.5546875" style="6" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" style="6" customWidth="1"/>
@@ -4096,40 +4081,40 @@
       <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>7</v>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>1032</v>
@@ -4138,13 +4123,13 @@
         <v>494</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="29">
+        <v>44075</v>
       </c>
       <c r="G2" s="3" t="e">
         <f>DATEDIF(F2,#REF!,"YD")</f>
@@ -4155,15 +4140,15 @@
         <v>#REF!</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6">
       <c r="A3" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="24">
         <v>1033</v>
@@ -4172,52 +4157,52 @@
         <v>503</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="29">
+        <v>44075</v>
       </c>
       <c r="G3" s="24" t="e">
         <f>DATEDIF(F3,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H3" s="26" t="e">
+      <c r="H3" s="25" t="e">
         <f t="shared" ref="H3:H29" si="0">(G3/7)</f>
         <v>#REF!</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="I3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
         <v>501</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F4" s="29">
+        <v>44235</v>
       </c>
       <c r="G4" s="3" t="e">
         <f>DATEDIF(F4,#REF!,"YD")</f>
@@ -4228,64 +4213,64 @@
         <v>#REF!</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="28" customFormat="1" ht="15.6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="27" customFormat="1" ht="15.6">
       <c r="A5" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="24">
         <v>502</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F5" s="29">
+        <v>44235</v>
       </c>
       <c r="G5" s="24" t="e">
         <f>DATEDIF(F5,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="26" t="e">
+      <c r="H5" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>76</v>
+      <c r="I5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.6">
       <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>498</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F6" s="29">
+        <v>44235</v>
       </c>
       <c r="G6" s="3" t="e">
         <f>DATEDIF(F6,#REF!,"YD")</f>
@@ -4296,64 +4281,64 @@
         <v>#REF!</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="28" customFormat="1" ht="15.6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="27" customFormat="1" ht="15.6">
       <c r="A7" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="24">
         <v>497</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F7" s="29">
+        <v>44235</v>
       </c>
       <c r="G7" s="24" t="e">
         <f>DATEDIF(F7,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="26" t="e">
+      <c r="H7" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>76</v>
+      <c r="I7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.6">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3">
         <v>500</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="F8" s="29">
+        <v>44249</v>
       </c>
       <c r="G8" s="3" t="e">
         <f>DATEDIF(F8,#REF!,"YD")</f>
@@ -4364,64 +4349,64 @@
         <v>#REF!</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="28" customFormat="1" ht="15.6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="27" customFormat="1" ht="15.6">
       <c r="A9" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="24">
         <v>499</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="29">
+        <v>44249</v>
       </c>
       <c r="G9" s="24" t="e">
         <f>DATEDIF(F9,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H9" s="26" t="e">
+      <c r="H9" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I9" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>76</v>
+      <c r="I9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.6">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>517</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="29">
+        <v>44317</v>
       </c>
       <c r="G10" s="3" t="e">
         <f>DATEDIF(F10,#REF!,"YD")</f>
@@ -4438,58 +4423,58 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="28" customFormat="1" ht="15.6">
+    <row r="11" spans="1:15" s="27" customFormat="1" ht="15.6">
       <c r="A11" s="24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="24">
         <v>506</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F11" s="29">
+        <v>44317</v>
       </c>
       <c r="G11" s="24" t="e">
         <f>DATEDIF(F11,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="26" t="e">
+      <c r="H11" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="26">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>509</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="29">
+        <v>44317</v>
       </c>
       <c r="G12" s="3" t="e">
         <f>DATEDIF(F12,#REF!,"YD")</f>
@@ -4506,58 +4491,58 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="28" customFormat="1" ht="15.6">
+    <row r="13" spans="1:15" s="27" customFormat="1" ht="15.6">
       <c r="A13" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="24">
         <v>514</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="29">
+        <v>44317</v>
       </c>
       <c r="G13" s="24" t="e">
         <f>DATEDIF(F13,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H13" s="26" t="e">
+      <c r="H13" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <v>11.7</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <v>14.8</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.6">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>521</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F14" s="29">
+        <v>44317</v>
       </c>
       <c r="G14" s="3" t="e">
         <f>DATEDIF(F14,#REF!,"YD")</f>
@@ -4574,58 +4559,58 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="28" customFormat="1" ht="15.6">
+    <row r="15" spans="1:15" s="27" customFormat="1" ht="15.6">
       <c r="A15" s="24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="24">
         <v>504</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F15" s="29">
+        <v>44317</v>
       </c>
       <c r="G15" s="24" t="e">
         <f>DATEDIF(F15,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H15" s="26" t="e">
+      <c r="H15" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <v>12.6</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.6">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>507</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F16" s="29">
+        <v>44317</v>
       </c>
       <c r="G16" s="3" t="e">
         <f>DATEDIF(F16,#REF!,"YD")</f>
@@ -4642,58 +4627,58 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="15.6">
+    <row r="17" spans="1:10" s="27" customFormat="1" ht="15.6">
       <c r="A17" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="24">
         <v>512</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F17" s="29">
+        <v>44317</v>
       </c>
       <c r="G17" s="24" t="e">
         <f>DATEDIF(F17,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H17" s="26" t="e">
+      <c r="H17" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>10.7</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="26">
         <v>13.1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
         <v>519</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F18" s="29">
+        <v>44317</v>
       </c>
       <c r="G18" s="3" t="e">
         <f>DATEDIF(F18,#REF!,"YD")</f>
@@ -4710,58 +4695,58 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="15.6">
+    <row r="19" spans="1:10" s="27" customFormat="1" ht="15.6">
       <c r="A19" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="24">
         <v>520</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F19" s="29">
+        <v>44317</v>
       </c>
       <c r="G19" s="24" t="e">
         <f>DATEDIF(F19,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H19" s="26" t="e">
+      <c r="H19" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="26">
         <v>13.4</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.6">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3">
         <v>510</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F20" s="29">
+        <v>44317</v>
       </c>
       <c r="G20" s="3" t="e">
         <f>DATEDIF(F20,#REF!,"YD")</f>
@@ -4780,22 +4765,22 @@
     </row>
     <row r="21" spans="1:10" ht="15.6">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <v>515</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F21" s="29">
+        <v>44317</v>
       </c>
       <c r="G21" s="3" t="e">
         <f>DATEDIF(F21,#REF!,"YD")</f>
@@ -4814,22 +4799,22 @@
     </row>
     <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3">
         <v>523</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F22" s="29">
+        <v>44317</v>
       </c>
       <c r="G22" s="3" t="e">
         <f>DATEDIF(F22,#REF!,"YD")</f>
@@ -4846,58 +4831,58 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="15.6">
+    <row r="23" spans="1:10" s="27" customFormat="1" ht="15.6">
       <c r="A23" s="24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="24">
         <v>505</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F23" s="29">
+        <v>44317</v>
       </c>
       <c r="G23" s="24" t="e">
         <f>DATEDIF(F23,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H23" s="26" t="e">
+      <c r="H23" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <v>10.3</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="26">
         <v>15.7</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.6">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <v>508</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F24" s="29">
+        <v>44317</v>
       </c>
       <c r="G24" s="3" t="e">
         <f>DATEDIF(F24,#REF!,"YD")</f>
@@ -4914,58 +4899,58 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="28" customFormat="1" ht="15.6">
+    <row r="25" spans="1:10" s="27" customFormat="1" ht="15.6">
       <c r="A25" s="24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" s="24">
         <v>513</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F25" s="29">
+        <v>44317</v>
       </c>
       <c r="G25" s="24" t="e">
         <f>DATEDIF(F25,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H25" s="26" t="e">
+      <c r="H25" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>9.4</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="26">
         <v>11.7</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3">
         <v>522</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F26" s="29">
+        <v>44317</v>
       </c>
       <c r="G26" s="3" t="e">
         <f>DATEDIF(F26,#REF!,"YD")</f>
@@ -4982,58 +4967,58 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="15.6">
+    <row r="27" spans="1:10" s="27" customFormat="1" ht="15.6">
       <c r="A27" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27" s="24">
         <v>518</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F27" s="29">
+        <v>44317</v>
       </c>
       <c r="G27" s="24" t="e">
         <f>DATEDIF(F27,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H27" s="26" t="e">
+      <c r="H27" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <v>10.199999999999999</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="26">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3">
         <v>511</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F28" s="29">
+        <v>44317</v>
       </c>
       <c r="G28" s="3" t="e">
         <f>DATEDIF(F28,#REF!,"YD")</f>
@@ -5050,87 +5035,87 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="15.6">
+    <row r="29" spans="1:10" s="27" customFormat="1" ht="15.6">
       <c r="A29" s="24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="24">
         <v>516</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F29" s="29">
+        <v>44317</v>
       </c>
       <c r="G29" s="24" t="e">
         <f>DATEDIF(F29,#REF!,"YD")</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="26" t="e">
+      <c r="H29" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <v>10.8</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="26">
         <v>11.7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="28" customFormat="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-    </row>
-    <row r="33" spans="1:10" s="28" customFormat="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-    </row>
-    <row r="35" spans="1:10" s="28" customFormat="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="37" spans="1:10" s="28" customFormat="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+    <row r="31" spans="1:10" s="27" customFormat="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="33" spans="1:10" s="27" customFormat="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+    </row>
+    <row r="35" spans="1:10" s="27" customFormat="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="37" spans="1:10" s="27" customFormat="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="39" spans="1:10" ht="20.399999999999999">
       <c r="G39" s="19"/>
@@ -5146,7 +5131,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -5182,37 +5167,37 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="L1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>1032</v>
@@ -5221,13 +5206,13 @@
         <v>494</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="29">
+        <v>44075</v>
       </c>
       <c r="G2" s="3" t="e">
         <f>DATEDIF(F2,#REF!,"YD")</f>
@@ -5258,7 +5243,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.6">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>1033</v>
@@ -5267,13 +5252,13 @@
         <v>503</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="F3" s="29">
+        <v>44075</v>
       </c>
       <c r="G3" s="3" t="e">
         <f>DATEDIF(F3,#REF!,"YD")</f>
@@ -5304,22 +5289,22 @@
     </row>
     <row r="4" spans="1:14" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
         <v>501</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F4" s="29">
+        <v>44235</v>
       </c>
       <c r="G4" s="3" t="e">
         <f>DATEDIF(F4,#REF!,"YD")</f>
@@ -5350,22 +5335,22 @@
     </row>
     <row r="5" spans="1:14" ht="15.6">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>502</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F5" s="29">
+        <v>44235</v>
       </c>
       <c r="G5" s="3" t="e">
         <f>DATEDIF(F5,#REF!,"YD")</f>
@@ -5396,22 +5381,22 @@
     </row>
     <row r="6" spans="1:14" ht="15.6">
       <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="3">
         <v>498</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F6" s="29">
+        <v>44235</v>
       </c>
       <c r="G6" s="3" t="e">
         <f>DATEDIF(F6,#REF!,"YD")</f>
@@ -5442,22 +5427,22 @@
     </row>
     <row r="7" spans="1:14" ht="15.6">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3">
         <v>497</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="F7" s="29">
+        <v>44235</v>
       </c>
       <c r="G7" s="3" t="e">
         <f>DATEDIF(F7,#REF!,"YD")</f>
@@ -5488,22 +5473,22 @@
     </row>
     <row r="8" spans="1:14" ht="15.6">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3">
         <v>500</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="F8" s="29">
+        <v>44249</v>
       </c>
       <c r="G8" s="3" t="e">
         <f>DATEDIF(F8,#REF!,"YD")</f>
@@ -5514,13 +5499,13 @@
         <v>#REF!</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L8" s="18">
         <v>888048</v>
@@ -5534,22 +5519,22 @@
     </row>
     <row r="9" spans="1:14" ht="15.6">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3">
         <v>499</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="29">
+        <v>44249</v>
       </c>
       <c r="G9" s="3" t="e">
         <f>DATEDIF(F9,#REF!,"YD")</f>
@@ -5560,13 +5545,13 @@
         <v>#REF!</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L9" s="18">
         <v>888048</v>
@@ -5580,22 +5565,22 @@
     </row>
     <row r="10" spans="1:14" ht="15.6">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>517</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="29">
+        <v>44317</v>
       </c>
       <c r="G10" s="3" t="e">
         <f>DATEDIF(F10,#REF!,"YD")</f>
@@ -5606,16 +5591,16 @@
         <v>#REF!</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M10" s="18">
         <v>884395</v>
@@ -5626,22 +5611,22 @@
     </row>
     <row r="11" spans="1:14" ht="15.6">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>506</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F11" s="29">
+        <v>44317</v>
       </c>
       <c r="G11" s="3" t="e">
         <f>DATEDIF(F11,#REF!,"YD")</f>
@@ -5652,16 +5637,16 @@
         <v>#REF!</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M11" s="18">
         <v>884395</v>
@@ -5672,22 +5657,22 @@
     </row>
     <row r="12" spans="1:14" ht="15.6">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>509</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="29">
+        <v>44317</v>
       </c>
       <c r="G12" s="3" t="e">
         <f>DATEDIF(F12,#REF!,"YD")</f>
@@ -5698,16 +5683,16 @@
         <v>#REF!</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M12" s="18">
         <v>884393</v>
@@ -5718,22 +5703,22 @@
     </row>
     <row r="13" spans="1:14" ht="15.6">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3">
         <v>514</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="29">
+        <v>44317</v>
       </c>
       <c r="G13" s="3" t="e">
         <f>DATEDIF(F13,#REF!,"YD")</f>
@@ -5744,16 +5729,16 @@
         <v>#REF!</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M13" s="18">
         <v>884395</v>
@@ -5764,22 +5749,22 @@
     </row>
     <row r="14" spans="1:14" ht="15.6">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>521</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F14" s="29">
+        <v>44317</v>
       </c>
       <c r="G14" s="3" t="e">
         <f>DATEDIF(F14,#REF!,"YD")</f>
@@ -5790,16 +5775,16 @@
         <v>#REF!</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M14" s="18">
         <v>884394</v>
@@ -5810,22 +5795,22 @@
     </row>
     <row r="15" spans="1:14" ht="15.6">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3">
         <v>504</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F15" s="29">
+        <v>44317</v>
       </c>
       <c r="G15" s="3" t="e">
         <f>DATEDIF(F15,#REF!,"YD")</f>
@@ -5836,16 +5821,16 @@
         <v>#REF!</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M15" s="18">
         <v>884395</v>
@@ -5856,22 +5841,22 @@
     </row>
     <row r="16" spans="1:14" ht="15.6">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>507</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F16" s="29">
+        <v>44317</v>
       </c>
       <c r="G16" s="3" t="e">
         <f>DATEDIF(F16,#REF!,"YD")</f>
@@ -5882,16 +5867,16 @@
         <v>#REF!</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M16" s="18">
         <v>884393</v>
@@ -5902,22 +5887,22 @@
     </row>
     <row r="17" spans="1:14" ht="15.6">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3">
         <v>512</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F17" s="29">
+        <v>44317</v>
       </c>
       <c r="G17" s="3" t="e">
         <f>DATEDIF(F17,#REF!,"YD")</f>
@@ -5928,16 +5913,16 @@
         <v>#REF!</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M17" s="18">
         <v>884395</v>
@@ -5948,22 +5933,22 @@
     </row>
     <row r="18" spans="1:14" ht="15.6">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
         <v>519</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F18" s="29">
+        <v>44317</v>
       </c>
       <c r="G18" s="3" t="e">
         <f>DATEDIF(F18,#REF!,"YD")</f>
@@ -5974,16 +5959,16 @@
         <v>#REF!</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M18" s="18">
         <v>884393</v>
@@ -5994,22 +5979,22 @@
     </row>
     <row r="19" spans="1:14" ht="15.6">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3">
         <v>520</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F19" s="29">
+        <v>44317</v>
       </c>
       <c r="G19" s="3" t="e">
         <f>DATEDIF(F19,#REF!,"YD")</f>
@@ -6020,16 +6005,16 @@
         <v>#REF!</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M19" s="18">
         <v>884394</v>
@@ -6040,22 +6025,22 @@
     </row>
     <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3">
         <v>510</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F20" s="29">
+        <v>44317</v>
       </c>
       <c r="G20" s="3" t="e">
         <f>DATEDIF(F20,#REF!,"YD")</f>
@@ -6066,16 +6051,16 @@
         <v>#REF!</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M20" s="18">
         <v>884393</v>
@@ -6086,22 +6071,22 @@
     </row>
     <row r="21" spans="1:14" ht="15.6">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <v>515</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F21" s="29">
+        <v>44317</v>
       </c>
       <c r="G21" s="3" t="e">
         <f>DATEDIF(F21,#REF!,"YD")</f>
@@ -6112,16 +6097,16 @@
         <v>#REF!</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M21" s="18">
         <v>884395</v>
@@ -6132,22 +6117,22 @@
     </row>
     <row r="22" spans="1:14" ht="15.6">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3">
         <v>523</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F22" s="29">
+        <v>44317</v>
       </c>
       <c r="G22" s="3" t="e">
         <f>DATEDIF(F22,#REF!,"YD")</f>
@@ -6158,16 +6143,16 @@
         <v>#REF!</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M22" s="18">
         <v>884394</v>
@@ -6178,22 +6163,22 @@
     </row>
     <row r="23" spans="1:14" ht="15.6">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3">
         <v>505</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F23" s="29">
+        <v>44317</v>
       </c>
       <c r="G23" s="3" t="e">
         <f>DATEDIF(F23,#REF!,"YD")</f>
@@ -6204,16 +6189,16 @@
         <v>#REF!</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M23" s="18">
         <v>884395</v>
@@ -6224,22 +6209,22 @@
     </row>
     <row r="24" spans="1:14" ht="15.6">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <v>508</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F24" s="29">
+        <v>44317</v>
       </c>
       <c r="G24" s="3" t="e">
         <f>DATEDIF(F24,#REF!,"YD")</f>
@@ -6250,16 +6235,16 @@
         <v>#REF!</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M24" s="18">
         <v>884393</v>
@@ -6270,22 +6255,22 @@
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="A25" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3">
         <v>513</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F25" s="29">
+        <v>44317</v>
       </c>
       <c r="G25" s="3" t="e">
         <f>DATEDIF(F25,#REF!,"YD")</f>
@@ -6296,16 +6281,16 @@
         <v>#REF!</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M25" s="18">
         <v>884395</v>
@@ -6316,22 +6301,22 @@
     </row>
     <row r="26" spans="1:14" ht="15.6">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3">
         <v>522</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F26" s="29">
+        <v>44317</v>
       </c>
       <c r="G26" s="3" t="e">
         <f>DATEDIF(F26,#REF!,"YD")</f>
@@ -6342,16 +6327,16 @@
         <v>#REF!</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M26" s="18">
         <v>884394</v>
@@ -6362,22 +6347,22 @@
     </row>
     <row r="27" spans="1:14" ht="15.6">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3">
         <v>518</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F27" s="29">
+        <v>44317</v>
       </c>
       <c r="G27" s="3" t="e">
         <f>DATEDIF(F27,#REF!,"YD")</f>
@@ -6388,16 +6373,16 @@
         <v>#REF!</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M27" s="18">
         <v>884395</v>
@@ -6408,22 +6393,22 @@
     </row>
     <row r="28" spans="1:14" ht="15.6">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3">
         <v>511</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="F28" s="29">
+        <v>44317</v>
       </c>
       <c r="G28" s="3" t="e">
         <f>DATEDIF(F28,#REF!,"YD")</f>
@@ -6434,16 +6419,16 @@
         <v>#REF!</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M28" s="18">
         <v>884393</v>
@@ -6454,22 +6439,22 @@
     </row>
     <row r="29" spans="1:14" ht="15.6">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3">
         <v>516</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="F29" s="29">
+        <v>44317</v>
       </c>
       <c r="G29" s="3" t="e">
         <f>DATEDIF(F29,#REF!,"YD")</f>
@@ -6480,16 +6465,16 @@
         <v>#REF!</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M29" s="18">
         <v>884395</v>
